--- a/inst/documentation/naming.xlsx
+++ b/inst/documentation/naming.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riwh\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riwh\OneDrive - Folkehelseinstituttet\packages\fhidata\inst\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2E89AF-CC8F-4C8C-95EC-4658DB9B4DF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{BE2E89AF-CC8F-4C8C-95EC-4658DB9B4DF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{81ED6820-E391-4D08-88F3-09C0134F0461}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C7D8C8F-C27C-42A1-835E-5B6BA437403B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C7D8C8F-C27C-42A1-835E-5B6BA437403B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="70">
   <si>
     <t>county</t>
   </si>
@@ -595,18 +595,18 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="42.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -629,7 +629,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -643,7 +643,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -660,7 +660,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -680,7 +680,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -700,7 +700,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -720,7 +720,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -734,12 +734,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -756,12 +756,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -781,7 +781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -798,27 +798,27 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -835,12 +835,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -860,7 +860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -880,7 +880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -900,7 +900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -920,7 +920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -940,7 +940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -960,7 +960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -980,7 +980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1020,12 +1020,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1041,8 +1041,11 @@
       <c r="F29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>2</v>
       </c>
@@ -1055,8 +1058,11 @@
       <c r="F30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -1076,7 +1082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1116,7 +1122,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -1136,7 +1142,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1156,7 +1162,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>57</v>
       </c>
